--- a/tables/B18107_2012.xlsx
+++ b/tables/B18107_2012.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\DOHMH\Programming\BESP\ACS_data_tool_for_EPHT\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E5AE640-2C5F-48CB-86F3-AED1A39F20C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93041E3-5330-4E66-AF1D-0C9FCD7557C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TabOut" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -84,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -213,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -253,9 +242,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,26 +277,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,26 +312,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -532,7 +487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C30"/>
   <sheetViews>
